--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H517"/>
+  <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13409,6 +13409,28 @@
         </is>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2026-02-07 #1</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0</v>
+      </c>
+      <c r="D518" t="inlineStr"/>
+      <c r="E518" t="inlineStr"/>
+      <c r="F518" t="inlineStr"/>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>Warmup</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H518"/>
+  <dimension ref="A1:H519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13431,6 +13431,26 @@
         </is>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2026-02-07 #2</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0</v>
+      </c>
+      <c r="D519" t="n">
+        <v>5</v>
+      </c>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.collyer\Dropbox\Running and Cycling\DataPipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B0047E-C9CD-4AB8-9151-A9B656383CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CF549B-47C2-44EB-A171-B899D91B9963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3340,13 +3340,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="H523" sqref="H523"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="A502" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H520"/>
+  <dimension ref="A1:H521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,42 +437,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>file</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>race_flag</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>parkrun</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>official_distance_km</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>surface</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>surface_adj</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>temp_override</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
@@ -12095,6 +12107,24 @@
       <c r="H520" t="inlineStr">
         <is>
           <t>Easy in dj</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0</v>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>Club interval session</t>
         </is>
       </c>
     </row>

--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H521"/>
+  <dimension ref="A1:H522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12128,6 +12128,27 @@
         </is>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0</v>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>SNOW</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H522"/>
+  <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12149,6 +12149,27 @@
         <v>1.05</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>0</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0</v>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>SNOW</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.collyer\Dropbox\Running and Cycling\DataPipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BAF188-9484-45DE-AEF1-9D4FD8BF58A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA63AE6-A6B4-4B37-A08A-A89C527C77B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1994,15 +1994,9 @@
     <t>2020-05-04_12-03-13.FIT</t>
   </si>
   <si>
-    <t>training: BMC Bannister virtual mile race</t>
-  </si>
-  <si>
     <t>2020-04-24_12-03-08.FIT</t>
   </si>
   <si>
-    <t>training: Palladino power project Virtual Mile race</t>
-  </si>
-  <si>
     <t>2019-09-11_20-19-41.FIT</t>
   </si>
   <si>
@@ -3048,6 +3042,12 @@
   </si>
   <si>
     <t>Parkrun sandwich VERY cold</t>
+  </si>
+  <si>
+    <t>Palladino power project Virtual Mile race</t>
+  </si>
+  <si>
+    <t>BMC Bannister virtual mile race</t>
   </si>
 </sst>
 </file>
@@ -3412,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="K530" sqref="K530"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="H341" sqref="H341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4294,7 +4294,7 @@
         <v>1.05</v>
       </c>
       <c r="H48" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -9356,7 +9356,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -9367,8 +9367,11 @@
       <c r="D338">
         <v>1.609</v>
       </c>
+      <c r="E338" t="s">
+        <v>139</v>
+      </c>
       <c r="H338" t="s">
-        <v>655</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -9384,16 +9387,13 @@
       <c r="D339">
         <v>1.609</v>
       </c>
-      <c r="E339" t="s">
-        <v>139</v>
-      </c>
       <c r="H339" t="s">
-        <v>653</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -9408,12 +9408,12 @@
         <v>139</v>
       </c>
       <c r="H340" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -9425,12 +9425,12 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -9445,12 +9445,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H342" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -9462,12 +9462,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H343" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -9482,12 +9482,12 @@
         <v>1.05</v>
       </c>
       <c r="H344" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -9502,12 +9502,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H345" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -9519,12 +9519,12 @@
         <v>1.05</v>
       </c>
       <c r="H346" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -9536,12 +9536,12 @@
         <v>1.05</v>
       </c>
       <c r="H347" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -9553,12 +9553,12 @@
         <v>1.05</v>
       </c>
       <c r="H348" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -9573,12 +9573,12 @@
         <v>25</v>
       </c>
       <c r="H349" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -9590,12 +9590,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H350" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -9607,12 +9607,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H351" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -9627,12 +9627,12 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H352" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -9644,12 +9644,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H353" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -9661,12 +9661,12 @@
         <v>1.05</v>
       </c>
       <c r="H354" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -9678,12 +9678,12 @@
         <v>1.05</v>
       </c>
       <c r="H355" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -9698,12 +9698,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H356" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -9718,12 +9718,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H357" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -9735,12 +9735,12 @@
         <v>1.05</v>
       </c>
       <c r="H358" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -9755,12 +9755,12 @@
         <v>1.05</v>
       </c>
       <c r="H359" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -9775,12 +9775,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H360" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -9795,12 +9795,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H361" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -9815,12 +9815,12 @@
         <v>1.05</v>
       </c>
       <c r="H362" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -9832,12 +9832,12 @@
         <v>1.05</v>
       </c>
       <c r="H363" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -9849,12 +9849,12 @@
         <v>1.05</v>
       </c>
       <c r="H364" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -9869,12 +9869,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H365" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -9886,12 +9886,12 @@
         <v>1.05</v>
       </c>
       <c r="H366" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -9903,12 +9903,12 @@
         <v>1.05</v>
       </c>
       <c r="H367" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -9920,12 +9920,12 @@
         <v>1.05</v>
       </c>
       <c r="H368" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -9940,12 +9940,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H369" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -9957,12 +9957,12 @@
         <v>1.05</v>
       </c>
       <c r="H370" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -9977,12 +9977,12 @@
         <v>1.05</v>
       </c>
       <c r="H371" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -9994,12 +9994,12 @@
         <v>1.05</v>
       </c>
       <c r="H372" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -10014,12 +10014,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H373" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -10034,12 +10034,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H374" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -10054,12 +10054,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H375" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -10074,12 +10074,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H376" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -10091,12 +10091,12 @@
         <v>1.05</v>
       </c>
       <c r="H377" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -10108,12 +10108,12 @@
         <v>1.05</v>
       </c>
       <c r="H378" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -10125,12 +10125,12 @@
         <v>1.05</v>
       </c>
       <c r="H379" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -10142,12 +10142,12 @@
         <v>1.05</v>
       </c>
       <c r="H380" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -10159,12 +10159,12 @@
         <v>1.05</v>
       </c>
       <c r="H381" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -10176,12 +10176,12 @@
         <v>1.05</v>
       </c>
       <c r="H382" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -10196,12 +10196,12 @@
         <v>1.05</v>
       </c>
       <c r="H383" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -10216,12 +10216,12 @@
         <v>1.05</v>
       </c>
       <c r="H384" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -10236,12 +10236,12 @@
         <v>1.08</v>
       </c>
       <c r="H385" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -10253,12 +10253,12 @@
         <v>1.05</v>
       </c>
       <c r="H386" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -10273,12 +10273,12 @@
         <v>1.05</v>
       </c>
       <c r="H387" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -10293,12 +10293,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H388" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -10313,12 +10313,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H389" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -10333,12 +10333,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H390" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -10353,12 +10353,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H391" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -10370,12 +10370,12 @@
         <v>1.05</v>
       </c>
       <c r="H392" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -10390,12 +10390,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H393" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -10407,12 +10407,12 @@
         <v>1.05</v>
       </c>
       <c r="H394" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -10427,12 +10427,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H395" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -10444,12 +10444,12 @@
         <v>1.05</v>
       </c>
       <c r="H396" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -10461,12 +10461,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H397" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -10481,12 +10481,12 @@
         <v>1.05</v>
       </c>
       <c r="H398" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -10498,12 +10498,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H399" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -10515,12 +10515,12 @@
         <v>1.05</v>
       </c>
       <c r="H400" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -10532,12 +10532,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H401" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -10549,12 +10549,12 @@
         <v>1.05</v>
       </c>
       <c r="H402" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -10566,12 +10566,12 @@
         <v>1.05</v>
       </c>
       <c r="H403" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -10583,12 +10583,12 @@
         <v>1.05</v>
       </c>
       <c r="H404" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -10600,12 +10600,12 @@
         <v>1.05</v>
       </c>
       <c r="H405" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -10617,12 +10617,12 @@
         <v>1.05</v>
       </c>
       <c r="H406" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -10634,12 +10634,12 @@
         <v>1.075</v>
       </c>
       <c r="H407" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -10651,12 +10651,12 @@
         <v>1.05</v>
       </c>
       <c r="H408" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -10668,12 +10668,12 @@
         <v>1.05</v>
       </c>
       <c r="H409" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -10688,12 +10688,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H410" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -10708,12 +10708,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H411" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -10728,12 +10728,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H412" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -10745,12 +10745,12 @@
         <v>1.05</v>
       </c>
       <c r="H413" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -10762,12 +10762,12 @@
         <v>1.05</v>
       </c>
       <c r="H414" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -10779,12 +10779,12 @@
         <v>1.05</v>
       </c>
       <c r="H415" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -10799,12 +10799,12 @@
         <v>1.05</v>
       </c>
       <c r="H416" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -10816,12 +10816,12 @@
         <v>1.05</v>
       </c>
       <c r="H417" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -10833,12 +10833,12 @@
         <v>1.05</v>
       </c>
       <c r="H418" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -10850,12 +10850,12 @@
         <v>1.05</v>
       </c>
       <c r="H419" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -10870,12 +10870,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H420" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -10887,12 +10887,12 @@
         <v>1.05</v>
       </c>
       <c r="H421" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -10904,12 +10904,12 @@
         <v>1.02</v>
       </c>
       <c r="H422" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -10924,12 +10924,12 @@
         <v>1.05</v>
       </c>
       <c r="H423" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -10941,12 +10941,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H424" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -10958,12 +10958,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H425" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -10978,12 +10978,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H426" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -10998,12 +10998,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H427" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -11018,12 +11018,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H428" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -11038,12 +11038,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H429" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -11058,12 +11058,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H430" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -11078,12 +11078,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H431" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -11098,12 +11098,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H432" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -11118,12 +11118,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H433" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -11138,12 +11138,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H434" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -11155,12 +11155,12 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -11172,12 +11172,12 @@
         <v>1.05</v>
       </c>
       <c r="H436" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -11192,12 +11192,12 @@
         <v>1.08</v>
       </c>
       <c r="H437" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B438">
         <v>0</v>
@@ -11209,12 +11209,12 @@
         <v>1.05</v>
       </c>
       <c r="H438" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -11229,12 +11229,12 @@
         <v>1.08</v>
       </c>
       <c r="H439" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -11249,12 +11249,12 @@
         <v>1.05</v>
       </c>
       <c r="H440" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -11266,12 +11266,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H441" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -11286,12 +11286,12 @@
         <v>23</v>
       </c>
       <c r="H442" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -11303,12 +11303,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H443" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B444">
         <v>0</v>
@@ -11320,12 +11320,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H444" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B445">
         <v>0</v>
@@ -11340,12 +11340,12 @@
         <v>1.05</v>
       </c>
       <c r="H445" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B446">
         <v>0</v>
@@ -11360,12 +11360,12 @@
         <v>1.05</v>
       </c>
       <c r="H446" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B447">
         <v>0</v>
@@ -11377,12 +11377,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H447" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B448">
         <v>0</v>
@@ -11394,12 +11394,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H448" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B449">
         <v>0</v>
@@ -11411,12 +11411,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H449" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B450">
         <v>0</v>
@@ -11431,12 +11431,12 @@
         <v>1.05</v>
       </c>
       <c r="H450" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B451">
         <v>0</v>
@@ -11448,12 +11448,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H451" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B452">
         <v>0</v>
@@ -11468,12 +11468,12 @@
         <v>1.05</v>
       </c>
       <c r="H452" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B453">
         <v>0</v>
@@ -11485,12 +11485,12 @@
         <v>1.05</v>
       </c>
       <c r="H453" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B454">
         <v>0</v>
@@ -11502,12 +11502,12 @@
         <v>1.05</v>
       </c>
       <c r="H454" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -11519,12 +11519,12 @@
         <v>1.05</v>
       </c>
       <c r="H455" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B456">
         <v>0</v>
@@ -11539,12 +11539,12 @@
         <v>1.05</v>
       </c>
       <c r="H456" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B457">
         <v>0</v>
@@ -11559,12 +11559,12 @@
         <v>1.05</v>
       </c>
       <c r="H457" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B458">
         <v>0</v>
@@ -11576,12 +11576,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B459">
         <v>0</v>
@@ -11593,12 +11593,12 @@
         <v>1.05</v>
       </c>
       <c r="H459" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B460">
         <v>0</v>
@@ -11610,12 +11610,12 @@
         <v>1.05</v>
       </c>
       <c r="H460" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B461">
         <v>0</v>
@@ -11627,12 +11627,12 @@
         <v>1.05</v>
       </c>
       <c r="H461" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -11647,12 +11647,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H462" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B463">
         <v>0</v>
@@ -11664,12 +11664,12 @@
         <v>1.05</v>
       </c>
       <c r="H463" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B464">
         <v>0</v>
@@ -11681,12 +11681,12 @@
         <v>1.05</v>
       </c>
       <c r="H464" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B465">
         <v>0</v>
@@ -11698,12 +11698,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H465" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B466">
         <v>0</v>
@@ -11718,12 +11718,12 @@
         <v>1.05</v>
       </c>
       <c r="H466" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B467">
         <v>0</v>
@@ -11735,12 +11735,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H467" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -11752,12 +11752,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -11769,12 +11769,12 @@
         <v>1.0149999999999999</v>
       </c>
       <c r="H469" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -11786,12 +11786,12 @@
         <v>1.01</v>
       </c>
       <c r="H470" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B471">
         <v>0</v>
@@ -11803,12 +11803,12 @@
         <v>1.05</v>
       </c>
       <c r="H471" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B472">
         <v>0</v>
@@ -11820,12 +11820,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H472" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B473">
         <v>0</v>
@@ -11837,12 +11837,12 @@
         <v>1.02</v>
       </c>
       <c r="H473" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -11857,12 +11857,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H474" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -11874,12 +11874,12 @@
         <v>1.02</v>
       </c>
       <c r="H475" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -11894,12 +11894,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H476" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B477">
         <v>0</v>
@@ -11911,12 +11911,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -11931,12 +11931,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H478" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B479">
         <v>0</v>
@@ -11951,12 +11951,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H479" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B480">
         <v>0</v>
@@ -11971,12 +11971,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H480" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B481">
         <v>0</v>
@@ -11991,12 +11991,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H481" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B482">
         <v>0</v>
@@ -12011,12 +12011,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H482" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B483">
         <v>0</v>
@@ -12031,12 +12031,12 @@
         <v>23</v>
       </c>
       <c r="H483" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B484">
         <v>0</v>
@@ -12051,12 +12051,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H484" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B485">
         <v>0</v>
@@ -12071,12 +12071,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H485" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B486">
         <v>0</v>
@@ -12088,12 +12088,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H486" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B487">
         <v>0</v>
@@ -12108,12 +12108,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H487" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B488">
         <v>0</v>
@@ -12128,12 +12128,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H488" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B489">
         <v>0</v>
@@ -12148,12 +12148,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H489" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B490">
         <v>0</v>
@@ -12168,12 +12168,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H490" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B491">
         <v>0</v>
@@ -12188,12 +12188,12 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="H491" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B492">
         <v>0</v>
@@ -12205,12 +12205,12 @@
         <v>1.05</v>
       </c>
       <c r="H492" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B493">
         <v>0</v>
@@ -12225,12 +12225,12 @@
         <v>1.05</v>
       </c>
       <c r="H493" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B494">
         <v>0</v>
@@ -12245,12 +12245,12 @@
         <v>1.05</v>
       </c>
       <c r="H494" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B495">
         <v>0</v>
@@ -12265,12 +12265,12 @@
         <v>23</v>
       </c>
       <c r="H495" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B496">
         <v>0</v>
@@ -12285,12 +12285,12 @@
         <v>23</v>
       </c>
       <c r="H496" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B497">
         <v>0</v>
@@ -12305,12 +12305,12 @@
         <v>1.05</v>
       </c>
       <c r="H497" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B498">
         <v>0</v>
@@ -12325,12 +12325,12 @@
         <v>1.05</v>
       </c>
       <c r="H498" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B499">
         <v>0</v>
@@ -12345,12 +12345,12 @@
         <v>1.05</v>
       </c>
       <c r="H499" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -12362,12 +12362,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H500" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B501">
         <v>0</v>
@@ -12379,12 +12379,12 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="H501" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B502">
         <v>0</v>
@@ -12399,12 +12399,12 @@
         <v>1.05</v>
       </c>
       <c r="H502" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B503">
         <v>0</v>
@@ -12419,12 +12419,12 @@
         <v>1.08</v>
       </c>
       <c r="H503" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B504">
         <v>0</v>
@@ -12439,12 +12439,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H504" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B505">
         <v>0</v>
@@ -12459,12 +12459,12 @@
         <v>23</v>
       </c>
       <c r="H505" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B506">
         <v>0</v>
@@ -12479,12 +12479,12 @@
         <v>1.08</v>
       </c>
       <c r="H506" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B507">
         <v>0</v>
@@ -12499,12 +12499,12 @@
         <v>1.05</v>
       </c>
       <c r="H507" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B508">
         <v>0</v>
@@ -12519,12 +12519,12 @@
         <v>1.08</v>
       </c>
       <c r="H508" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B509">
         <v>0</v>
@@ -12539,12 +12539,12 @@
         <v>1.08</v>
       </c>
       <c r="H509" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B510">
         <v>0</v>
@@ -12559,12 +12559,12 @@
         <v>1.08</v>
       </c>
       <c r="H510" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B511">
         <v>0</v>
@@ -12579,12 +12579,12 @@
         <v>23</v>
       </c>
       <c r="H511" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B512">
         <v>0</v>
@@ -12599,12 +12599,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H512" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B513">
         <v>0</v>
@@ -12619,12 +12619,12 @@
         <v>23</v>
       </c>
       <c r="H513" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B514">
         <v>0</v>
@@ -12639,12 +12639,12 @@
         <v>1.08</v>
       </c>
       <c r="H514" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B515">
         <v>0</v>
@@ -12659,12 +12659,12 @@
         <v>1.01</v>
       </c>
       <c r="H515" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B516">
         <v>0</v>
@@ -12679,12 +12679,12 @@
         <v>1.05</v>
       </c>
       <c r="H516" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B517">
         <v>0</v>
@@ -12699,12 +12699,12 @@
         <v>1.05</v>
       </c>
       <c r="H517" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B518">
         <v>0</v>
@@ -12719,12 +12719,12 @@
         <v>1.05</v>
       </c>
       <c r="H518" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B519">
         <v>0</v>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B520">
         <v>0</v>
@@ -12756,12 +12756,12 @@
         <v>1.05</v>
       </c>
       <c r="H520" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B521">
         <v>0</v>
@@ -12776,12 +12776,12 @@
         <v>1.05</v>
       </c>
       <c r="H521" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B522">
         <v>0</v>
@@ -12796,12 +12796,12 @@
         <v>1.05</v>
       </c>
       <c r="H522" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B523">
         <v>0</v>
@@ -12816,7 +12816,7 @@
         <v>1.08</v>
       </c>
       <c r="H523" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.collyer\Dropbox\Running and Cycling\DataPipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA63AE6-A6B4-4B37-A08A-A89C527C77B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB2078A-9E3D-4409-80B8-8521713FAC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3412,9 +3412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="H341" sqref="H341"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3449,7 +3447,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>656</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3458,15 +3456,15 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>42.195</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>654</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3475,15 +3473,18 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>42.195</v>
+        <v>1.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>650</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3492,15 +3493,18 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>42.195</v>
+        <v>1.609</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>653</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3509,15 +3513,18 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>42.195</v>
+        <v>1.609</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>652</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3526,18 +3533,15 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>42.195</v>
-      </c>
-      <c r="G6">
-        <v>25</v>
+        <v>1.609</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>648</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3546,21 +3550,15 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>30.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>643</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3569,21 +3567,21 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>30.25</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <v>1.05</v>
+        <v>644</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>646</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3592,342 +3590,327 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>30.25</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>1.05</v>
+        <v>644</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>30.25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>21.097000000000001</v>
-      </c>
-      <c r="G14">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>21.097000000000001</v>
-      </c>
-      <c r="G25">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>21.097000000000001</v>
-      </c>
-      <c r="G26">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3936,15 +3919,15 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3953,15 +3936,15 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>21.097000000000001</v>
+        <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3970,15 +3953,15 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>16.09</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3987,55 +3970,49 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31">
-        <v>1.0349999999999999</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4044,83 +4021,83 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4129,100 +4106,100 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>287</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>93</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>95</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4231,52 +4208,49 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <v>0.98</v>
+        <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>99</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>839</v>
+        <v>161</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4285,58 +4259,49 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>840</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>103</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>0.98</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>105</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4345,49 +4310,49 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4396,32 +4361,32 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>307</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>115</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4430,140 +4395,134 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>71</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>315</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>123</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>317</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>127</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>321</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>129</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4572,66 +4531,66 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>133</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4643,12 +4602,12 @@
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4660,29 +4619,32 @@
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>5</v>
       </c>
+      <c r="E70" t="s">
+        <v>139</v>
+      </c>
       <c r="H70" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4694,12 +4656,12 @@
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4711,12 +4673,12 @@
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4728,12 +4690,12 @@
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4745,12 +4707,12 @@
         <v>5</v>
       </c>
       <c r="H74" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4762,12 +4724,12 @@
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4779,12 +4741,12 @@
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -4796,12 +4758,12 @@
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4813,12 +4775,12 @@
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4830,12 +4792,12 @@
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4847,12 +4809,12 @@
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4864,29 +4826,29 @@
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4898,12 +4860,12 @@
         <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4915,12 +4877,12 @@
         <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4932,80 +4894,89 @@
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
       <c r="H86" t="s">
-        <v>152</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>359</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>5</v>
       </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88">
+        <v>1.0349999999999999</v>
+      </c>
       <c r="H88" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>5</v>
       </c>
+      <c r="E89" t="s">
+        <v>139</v>
+      </c>
       <c r="H89" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -5017,29 +4988,29 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>277</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>219</v>
+        <v>363</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>220</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -5051,12 +5022,12 @@
         <v>5</v>
       </c>
       <c r="H92" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -5068,12 +5039,12 @@
         <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>280</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -5085,12 +5056,12 @@
         <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>282</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -5102,46 +5073,46 @@
         <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>373</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>158</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>287</v>
+        <v>375</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -5153,12 +5124,12 @@
         <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>289</v>
+        <v>377</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -5170,12 +5141,12 @@
         <v>5</v>
       </c>
       <c r="H99" t="s">
-        <v>290</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>379</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -5187,46 +5158,46 @@
         <v>5</v>
       </c>
       <c r="H100" t="s">
-        <v>292</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>294</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>381</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>5</v>
       </c>
       <c r="H102" t="s">
-        <v>160</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5238,12 +5209,12 @@
         <v>5</v>
       </c>
       <c r="H103" t="s">
-        <v>296</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5255,46 +5226,46 @@
         <v>5</v>
       </c>
       <c r="H104" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>5</v>
       </c>
       <c r="H105" t="s">
-        <v>162</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>5</v>
       </c>
       <c r="H106" t="s">
-        <v>300</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -5306,29 +5277,29 @@
         <v>5</v>
       </c>
       <c r="H107" t="s">
-        <v>302</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>163</v>
+        <v>391</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>164</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5340,12 +5311,12 @@
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>304</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5357,29 +5328,29 @@
         <v>5</v>
       </c>
       <c r="H110" t="s">
-        <v>306</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>397</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>166</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -5391,12 +5362,12 @@
         <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>308</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -5408,12 +5379,12 @@
         <v>5</v>
       </c>
       <c r="H113" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -5425,12 +5396,12 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>311</v>
+        <v>403</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -5442,12 +5413,12 @@
         <v>5</v>
       </c>
       <c r="H115" t="s">
-        <v>312</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>405</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -5459,12 +5430,12 @@
         <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>314</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>315</v>
+        <v>407</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -5476,12 +5447,12 @@
         <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>316</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -5493,12 +5464,12 @@
         <v>5</v>
       </c>
       <c r="H118" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>319</v>
+        <v>411</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -5510,46 +5481,46 @@
         <v>5</v>
       </c>
       <c r="H119" t="s">
-        <v>320</v>
+        <v>412</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>5</v>
       </c>
       <c r="H120" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>169</v>
+        <v>413</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>5</v>
       </c>
       <c r="H121" t="s">
-        <v>170</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -5561,46 +5532,46 @@
         <v>5</v>
       </c>
       <c r="H122" t="s">
-        <v>324</v>
+        <v>416</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>326</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>417</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>5</v>
       </c>
       <c r="H124" t="s">
-        <v>172</v>
+        <v>418</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>327</v>
+        <v>419</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -5612,12 +5583,12 @@
         <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>328</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -5629,32 +5600,29 @@
         <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>423</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>5</v>
       </c>
-      <c r="E127" t="s">
-        <v>139</v>
-      </c>
       <c r="H127" t="s">
-        <v>140</v>
+        <v>424</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>331</v>
+        <v>425</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -5666,29 +5634,29 @@
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>332</v>
+        <v>426</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>333</v>
+        <v>189</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>334</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -5700,29 +5668,29 @@
         <v>5</v>
       </c>
       <c r="H130" t="s">
-        <v>336</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>337</v>
+        <v>191</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>338</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -5734,12 +5702,12 @@
         <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>340</v>
+        <v>430</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>341</v>
+        <v>431</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -5751,12 +5719,12 @@
         <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>342</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -5768,12 +5736,12 @@
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>344</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>345</v>
+        <v>435</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -5785,15 +5753,15 @@
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>346</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>347</v>
+        <v>437</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -5801,13 +5769,16 @@
       <c r="D136">
         <v>5</v>
       </c>
+      <c r="F136">
+        <v>1.05</v>
+      </c>
       <c r="H136" t="s">
-        <v>348</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5819,46 +5790,49 @@
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>350</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>351</v>
+        <v>193</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>352</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>441</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <v>5</v>
       </c>
+      <c r="F139">
+        <v>1.05</v>
+      </c>
       <c r="H139" t="s">
-        <v>174</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>353</v>
+        <v>443</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5870,15 +5844,15 @@
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>354</v>
+        <v>444</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>355</v>
+        <v>445</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -5886,50 +5860,56 @@
       <c r="D141">
         <v>5</v>
       </c>
+      <c r="F141">
+        <v>1.05</v>
+      </c>
       <c r="H141" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>447</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142">
         <v>5</v>
       </c>
+      <c r="F142">
+        <v>1.05</v>
+      </c>
       <c r="H142" t="s">
-        <v>176</v>
+        <v>448</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>357</v>
+        <v>195</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>358</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -5937,16 +5917,19 @@
       <c r="D144">
         <v>5</v>
       </c>
+      <c r="F144">
+        <v>1.05</v>
+      </c>
       <c r="H144" t="s">
-        <v>360</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>236</v>
+        <v>450</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5954,39 +5937,33 @@
       <c r="D145">
         <v>5</v>
       </c>
-      <c r="E145" t="s">
-        <v>19</v>
-      </c>
       <c r="F145">
-        <v>1.0349999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="H145" t="s">
-        <v>237</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>451</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>5</v>
       </c>
-      <c r="E146" t="s">
-        <v>139</v>
-      </c>
       <c r="H146" t="s">
-        <v>142</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>361</v>
+        <v>453</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5998,12 +5975,12 @@
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>362</v>
+        <v>454</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -6015,32 +5992,32 @@
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>366</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>367</v>
+        <v>457</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -6048,13 +6025,16 @@
       <c r="D150">
         <v>5</v>
       </c>
+      <c r="F150">
+        <v>1.05</v>
+      </c>
       <c r="H150" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>369</v>
+        <v>458</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6066,12 +6046,12 @@
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>370</v>
+        <v>459</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -6083,12 +6063,12 @@
         <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>372</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>373</v>
+        <v>462</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -6100,29 +6080,32 @@
         <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>374</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>177</v>
+        <v>464</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154">
         <v>5</v>
       </c>
+      <c r="F154">
+        <v>1.05</v>
+      </c>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -6134,12 +6117,12 @@
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>377</v>
+        <v>467</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6151,114 +6134,117 @@
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>378</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>379</v>
+        <v>199</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>380</v>
+        <v>200</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>469</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158">
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>180</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>382</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>383</v>
+        <v>143</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>5</v>
       </c>
+      <c r="E160" t="s">
+        <v>139</v>
+      </c>
       <c r="H160" t="s">
-        <v>384</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161">
         <v>5</v>
       </c>
       <c r="H161" t="s">
-        <v>386</v>
+        <v>204</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>5</v>
       </c>
       <c r="H162" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -6270,29 +6256,29 @@
         <v>5</v>
       </c>
       <c r="H163" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>389</v>
+        <v>209</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>390</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>391</v>
+        <v>471</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -6304,15 +6290,15 @@
         <v>5</v>
       </c>
       <c r="H165" t="s">
-        <v>392</v>
+        <v>472</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>393</v>
+        <v>473</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -6320,13 +6306,16 @@
       <c r="D166">
         <v>5</v>
       </c>
+      <c r="F166">
+        <v>1.05</v>
+      </c>
       <c r="H166" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>395</v>
+        <v>474</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -6338,12 +6327,12 @@
         <v>5</v>
       </c>
       <c r="H167" t="s">
-        <v>396</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>397</v>
+        <v>476</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -6355,15 +6344,15 @@
         <v>5</v>
       </c>
       <c r="H168" t="s">
-        <v>398</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>399</v>
+        <v>477</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -6371,30 +6360,33 @@
       <c r="D169">
         <v>5</v>
       </c>
+      <c r="F169">
+        <v>1.05</v>
+      </c>
       <c r="H169" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>183</v>
+        <v>478</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>184</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -6406,12 +6398,12 @@
         <v>5</v>
       </c>
       <c r="H171" t="s">
-        <v>402</v>
+        <v>481</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>403</v>
+        <v>482</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -6423,15 +6415,15 @@
         <v>5</v>
       </c>
       <c r="H172" t="s">
-        <v>404</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>405</v>
+        <v>484</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -6439,16 +6431,19 @@
       <c r="D173">
         <v>5</v>
       </c>
+      <c r="F173">
+        <v>1.05</v>
+      </c>
       <c r="H173" t="s">
-        <v>406</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -6456,13 +6451,16 @@
       <c r="D174">
         <v>5</v>
       </c>
+      <c r="F174">
+        <v>1.05</v>
+      </c>
       <c r="H174" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -6474,12 +6472,12 @@
         <v>5</v>
       </c>
       <c r="H175" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -6491,29 +6489,29 @@
         <v>5</v>
       </c>
       <c r="H176" t="s">
-        <v>412</v>
+        <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>491</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177">
         <v>5</v>
       </c>
       <c r="H177" t="s">
-        <v>186</v>
+        <v>492</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>413</v>
+        <v>493</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -6525,15 +6523,15 @@
         <v>5</v>
       </c>
       <c r="H178" t="s">
-        <v>414</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>415</v>
+        <v>221</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -6541,30 +6539,36 @@
       <c r="D179">
         <v>5</v>
       </c>
+      <c r="E179" t="s">
+        <v>222</v>
+      </c>
+      <c r="F179">
+        <v>1.08</v>
+      </c>
       <c r="H179" t="s">
-        <v>416</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>187</v>
+        <v>495</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <v>5</v>
       </c>
       <c r="H180" t="s">
-        <v>188</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>417</v>
+        <v>497</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -6575,13 +6579,16 @@
       <c r="D181">
         <v>5</v>
       </c>
+      <c r="F181">
+        <v>1.0249999999999999</v>
+      </c>
       <c r="H181" t="s">
-        <v>418</v>
+        <v>498</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>419</v>
+        <v>499</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -6593,12 +6600,12 @@
         <v>5</v>
       </c>
       <c r="H182" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>421</v>
+        <v>500</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -6610,12 +6617,12 @@
         <v>5</v>
       </c>
       <c r="H183" t="s">
-        <v>422</v>
+        <v>501</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>423</v>
+        <v>502</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -6627,15 +6634,15 @@
         <v>5</v>
       </c>
       <c r="H184" t="s">
-        <v>424</v>
+        <v>503</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -6643,30 +6650,36 @@
       <c r="D185">
         <v>5</v>
       </c>
+      <c r="E185" t="s">
+        <v>70</v>
+      </c>
+      <c r="F185">
+        <v>1.075</v>
+      </c>
       <c r="H185" t="s">
-        <v>426</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>504</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186">
         <v>5</v>
       </c>
       <c r="H186" t="s">
-        <v>190</v>
+        <v>505</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -6678,29 +6691,29 @@
         <v>5</v>
       </c>
       <c r="H187" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>508</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <v>5</v>
       </c>
       <c r="H188" t="s">
-        <v>192</v>
+        <v>509</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>429</v>
+        <v>510</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -6712,12 +6725,12 @@
         <v>5</v>
       </c>
       <c r="H189" t="s">
-        <v>430</v>
+        <v>511</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>431</v>
+        <v>512</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -6729,12 +6742,12 @@
         <v>5</v>
       </c>
       <c r="H190" t="s">
-        <v>432</v>
+        <v>513</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>433</v>
+        <v>514</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -6746,12 +6759,12 @@
         <v>5</v>
       </c>
       <c r="H191" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>435</v>
+        <v>516</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -6763,15 +6776,15 @@
         <v>5</v>
       </c>
       <c r="H192" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>437</v>
+        <v>518</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -6779,16 +6792,13 @@
       <c r="D193">
         <v>5</v>
       </c>
-      <c r="F193">
-        <v>1.05</v>
-      </c>
       <c r="H193" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -6800,32 +6810,32 @@
         <v>5</v>
       </c>
       <c r="H194" t="s">
-        <v>440</v>
+        <v>520</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>521</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195">
         <v>5</v>
       </c>
       <c r="H195" t="s">
-        <v>194</v>
+        <v>479</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>441</v>
+        <v>522</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -6833,16 +6843,13 @@
       <c r="D196">
         <v>5</v>
       </c>
-      <c r="F196">
-        <v>1.05</v>
-      </c>
       <c r="H196" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -6854,15 +6861,15 @@
         <v>5</v>
       </c>
       <c r="H197" t="s">
-        <v>444</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -6870,19 +6877,16 @@
       <c r="D198">
         <v>5</v>
       </c>
-      <c r="F198">
-        <v>1.05</v>
-      </c>
       <c r="H198" t="s">
-        <v>446</v>
+        <v>526</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>447</v>
+        <v>527</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -6890,36 +6894,33 @@
       <c r="D199">
         <v>5</v>
       </c>
-      <c r="F199">
-        <v>1.05</v>
-      </c>
       <c r="H199" t="s">
-        <v>448</v>
+        <v>528</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>195</v>
+        <v>529</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>5</v>
       </c>
       <c r="H200" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>449</v>
+        <v>530</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -6927,19 +6928,16 @@
       <c r="D201">
         <v>5</v>
       </c>
-      <c r="F201">
-        <v>1.05</v>
-      </c>
       <c r="H201" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -6947,16 +6945,13 @@
       <c r="D202">
         <v>5</v>
       </c>
-      <c r="F202">
-        <v>1.05</v>
-      </c>
       <c r="H202" t="s">
-        <v>448</v>
+        <v>533</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>451</v>
+        <v>534</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -6968,12 +6963,12 @@
         <v>5</v>
       </c>
       <c r="H203" t="s">
-        <v>452</v>
+        <v>535</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>453</v>
+        <v>536</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -6985,12 +6980,12 @@
         <v>5</v>
       </c>
       <c r="H204" t="s">
-        <v>454</v>
+        <v>537</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>455</v>
+        <v>538</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -7002,32 +6997,38 @@
         <v>5</v>
       </c>
       <c r="H205" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>5</v>
       </c>
+      <c r="E206" t="s">
+        <v>70</v>
+      </c>
+      <c r="F206">
+        <v>1.05</v>
+      </c>
       <c r="H206" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -7035,16 +7036,13 @@
       <c r="D207">
         <v>5</v>
       </c>
-      <c r="F207">
-        <v>1.05</v>
-      </c>
       <c r="H207" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>458</v>
+        <v>540</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -7056,12 +7054,12 @@
         <v>5</v>
       </c>
       <c r="H208" t="s">
-        <v>459</v>
+        <v>541</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -7073,12 +7071,12 @@
         <v>5</v>
       </c>
       <c r="H209" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>462</v>
+        <v>544</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -7090,15 +7088,15 @@
         <v>5</v>
       </c>
       <c r="H210" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -7106,16 +7104,13 @@
       <c r="D211">
         <v>5</v>
       </c>
-      <c r="F211">
-        <v>1.05</v>
-      </c>
       <c r="H211" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -7127,12 +7122,12 @@
         <v>5</v>
       </c>
       <c r="H212" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -7144,29 +7139,35 @@
         <v>5</v>
       </c>
       <c r="H213" t="s">
-        <v>468</v>
+        <v>549</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214">
         <v>5</v>
       </c>
+      <c r="E214" t="s">
+        <v>19</v>
+      </c>
+      <c r="F214">
+        <v>1.0349999999999999</v>
+      </c>
       <c r="H214" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>469</v>
+        <v>550</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -7178,12 +7179,12 @@
         <v>5</v>
       </c>
       <c r="H215" t="s">
-        <v>470</v>
+        <v>551</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -7194,67 +7195,67 @@
       <c r="D216">
         <v>5</v>
       </c>
+      <c r="E216" t="s">
+        <v>139</v>
+      </c>
       <c r="H216" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>143</v>
+        <v>552</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
         <v>5</v>
       </c>
-      <c r="E217" t="s">
-        <v>139</v>
-      </c>
       <c r="H217" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>203</v>
+        <v>553</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218">
         <v>5</v>
       </c>
       <c r="H218" t="s">
-        <v>204</v>
+        <v>554</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>205</v>
+        <v>555</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
         <v>5</v>
       </c>
       <c r="H219" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -7265,30 +7266,33 @@
       <c r="D220">
         <v>5</v>
       </c>
+      <c r="E220" t="s">
+        <v>139</v>
+      </c>
       <c r="H220" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>209</v>
+        <v>556</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221">
         <v>5</v>
       </c>
       <c r="H221" t="s">
-        <v>210</v>
+        <v>557</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>471</v>
+        <v>240</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -7299,16 +7303,22 @@
       <c r="D222">
         <v>5</v>
       </c>
+      <c r="E222" t="s">
+        <v>19</v>
+      </c>
+      <c r="F222">
+        <v>1.0349999999999999</v>
+      </c>
       <c r="H222" t="s">
-        <v>472</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>473</v>
+        <v>558</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -7316,16 +7326,13 @@
       <c r="D223">
         <v>5</v>
       </c>
-      <c r="F223">
-        <v>1.05</v>
-      </c>
       <c r="H223" t="s">
-        <v>448</v>
+        <v>559</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>474</v>
+        <v>242</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -7336,13 +7343,19 @@
       <c r="D224">
         <v>5</v>
       </c>
+      <c r="E224" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224">
+        <v>1.0349999999999999</v>
+      </c>
       <c r="H224" t="s">
-        <v>475</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>476</v>
+        <v>560</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -7354,15 +7367,15 @@
         <v>5</v>
       </c>
       <c r="H225" t="s">
-        <v>475</v>
+        <v>561</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>477</v>
+        <v>562</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -7370,16 +7383,13 @@
       <c r="D226">
         <v>5</v>
       </c>
-      <c r="F226">
-        <v>1.05</v>
-      </c>
       <c r="H226" t="s">
-        <v>448</v>
+        <v>549</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>478</v>
+        <v>228</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -7390,13 +7400,19 @@
       <c r="D227">
         <v>5</v>
       </c>
+      <c r="E227" t="s">
+        <v>70</v>
+      </c>
+      <c r="F227">
+        <v>1.05</v>
+      </c>
       <c r="H227" t="s">
-        <v>479</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>480</v>
+        <v>230</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -7407,33 +7423,39 @@
       <c r="D228">
         <v>5</v>
       </c>
+      <c r="E228" t="s">
+        <v>70</v>
+      </c>
+      <c r="F228">
+        <v>1.05</v>
+      </c>
       <c r="H228" t="s">
-        <v>481</v>
+        <v>231</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>482</v>
+        <v>211</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229">
         <v>5</v>
       </c>
       <c r="H229" t="s">
-        <v>483</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>484</v>
+        <v>563</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -7441,19 +7463,16 @@
       <c r="D230">
         <v>5</v>
       </c>
-      <c r="F230">
-        <v>1.05</v>
-      </c>
       <c r="H230" t="s">
-        <v>485</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -7461,16 +7480,13 @@
       <c r="D231">
         <v>5</v>
       </c>
-      <c r="F231">
-        <v>1.05</v>
-      </c>
       <c r="H231" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>488</v>
+        <v>565</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -7482,12 +7498,12 @@
         <v>5</v>
       </c>
       <c r="H232" t="s">
-        <v>479</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>489</v>
+        <v>566</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -7499,12 +7515,12 @@
         <v>5</v>
       </c>
       <c r="H233" t="s">
-        <v>490</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>491</v>
+        <v>568</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -7516,12 +7532,12 @@
         <v>5</v>
       </c>
       <c r="H234" t="s">
-        <v>492</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>493</v>
+        <v>570</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -7533,15 +7549,15 @@
         <v>5</v>
       </c>
       <c r="H235" t="s">
-        <v>494</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>221</v>
+        <v>572</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -7549,19 +7565,13 @@
       <c r="D236">
         <v>5</v>
       </c>
-      <c r="E236" t="s">
-        <v>222</v>
-      </c>
-      <c r="F236">
-        <v>1.08</v>
-      </c>
       <c r="H236" t="s">
-        <v>223</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>495</v>
+        <v>574</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -7573,12 +7583,12 @@
         <v>5</v>
       </c>
       <c r="H237" t="s">
-        <v>496</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>497</v>
+        <v>576</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -7589,16 +7599,13 @@
       <c r="D238">
         <v>5</v>
       </c>
-      <c r="F238">
-        <v>1.0249999999999999</v>
-      </c>
       <c r="H238" t="s">
-        <v>498</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>499</v>
+        <v>577</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -7610,12 +7617,12 @@
         <v>5</v>
       </c>
       <c r="H239" t="s">
-        <v>492</v>
+        <v>578</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>500</v>
+        <v>579</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -7627,12 +7634,12 @@
         <v>5</v>
       </c>
       <c r="H240" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>502</v>
+        <v>581</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -7644,15 +7651,15 @@
         <v>5</v>
       </c>
       <c r="H241" t="s">
-        <v>503</v>
+        <v>582</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>224</v>
+        <v>583</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -7660,19 +7667,13 @@
       <c r="D242">
         <v>5</v>
       </c>
-      <c r="E242" t="s">
-        <v>70</v>
-      </c>
-      <c r="F242">
-        <v>1.075</v>
-      </c>
       <c r="H242" t="s">
-        <v>225</v>
+        <v>584</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -7684,12 +7685,12 @@
         <v>5</v>
       </c>
       <c r="H243" t="s">
-        <v>505</v>
+        <v>586</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>506</v>
+        <v>587</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -7701,12 +7702,12 @@
         <v>5</v>
       </c>
       <c r="H244" t="s">
-        <v>507</v>
+        <v>588</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>508</v>
+        <v>589</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -7718,12 +7719,12 @@
         <v>5</v>
       </c>
       <c r="H245" t="s">
-        <v>509</v>
+        <v>590</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>510</v>
+        <v>591</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -7735,12 +7736,12 @@
         <v>5</v>
       </c>
       <c r="H246" t="s">
-        <v>511</v>
+        <v>592</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>512</v>
+        <v>593</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -7752,12 +7753,12 @@
         <v>5</v>
       </c>
       <c r="H247" t="s">
-        <v>513</v>
+        <v>594</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>514</v>
+        <v>595</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -7769,12 +7770,12 @@
         <v>5</v>
       </c>
       <c r="H248" t="s">
-        <v>515</v>
+        <v>596</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>516</v>
+        <v>232</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -7785,13 +7786,19 @@
       <c r="D249">
         <v>5</v>
       </c>
+      <c r="E249" t="s">
+        <v>70</v>
+      </c>
+      <c r="F249">
+        <v>1.05</v>
+      </c>
       <c r="H249" t="s">
-        <v>517</v>
+        <v>233</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>518</v>
+        <v>597</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -7803,12 +7810,12 @@
         <v>5</v>
       </c>
       <c r="H250" t="s">
-        <v>479</v>
+        <v>598</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -7820,12 +7827,12 @@
         <v>5</v>
       </c>
       <c r="H251" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -7837,29 +7844,29 @@
         <v>5</v>
       </c>
       <c r="H252" t="s">
-        <v>479</v>
+        <v>602</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>522</v>
+        <v>213</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D253">
         <v>5</v>
       </c>
       <c r="H253" t="s">
-        <v>479</v>
+        <v>214</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -7871,12 +7878,12 @@
         <v>5</v>
       </c>
       <c r="H254" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -7888,12 +7895,12 @@
         <v>5</v>
       </c>
       <c r="H255" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -7905,12 +7912,12 @@
         <v>5</v>
       </c>
       <c r="H256" t="s">
-        <v>528</v>
+        <v>608</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>529</v>
+        <v>609</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -7922,12 +7929,12 @@
         <v>5</v>
       </c>
       <c r="H257" t="s">
-        <v>252</v>
+        <v>610</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>530</v>
+        <v>611</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -7939,12 +7946,12 @@
         <v>5</v>
       </c>
       <c r="H258" t="s">
-        <v>531</v>
+        <v>612</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>532</v>
+        <v>613</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -7956,29 +7963,29 @@
         <v>5</v>
       </c>
       <c r="H259" t="s">
-        <v>533</v>
+        <v>614</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>534</v>
+        <v>215</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260">
         <v>5</v>
       </c>
       <c r="H260" t="s">
-        <v>535</v>
+        <v>216</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>536</v>
+        <v>615</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -7990,12 +7997,12 @@
         <v>5</v>
       </c>
       <c r="H261" t="s">
-        <v>537</v>
+        <v>616</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>538</v>
+        <v>617</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -8007,12 +8014,12 @@
         <v>5</v>
       </c>
       <c r="H262" t="s">
-        <v>479</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>226</v>
+        <v>619</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -8023,19 +8030,13 @@
       <c r="D263">
         <v>5</v>
       </c>
-      <c r="E263" t="s">
-        <v>70</v>
-      </c>
-      <c r="F263">
-        <v>1.05</v>
-      </c>
       <c r="H263" t="s">
-        <v>227</v>
+        <v>620</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -8047,12 +8048,12 @@
         <v>5</v>
       </c>
       <c r="H264" t="s">
-        <v>492</v>
+        <v>622</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>540</v>
+        <v>623</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -8064,12 +8065,12 @@
         <v>5</v>
       </c>
       <c r="H265" t="s">
-        <v>541</v>
+        <v>624</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>542</v>
+        <v>625</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -8081,12 +8082,12 @@
         <v>5</v>
       </c>
       <c r="H266" t="s">
-        <v>543</v>
+        <v>626</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>544</v>
+        <v>627</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -8098,12 +8099,12 @@
         <v>5</v>
       </c>
       <c r="H267" t="s">
-        <v>492</v>
+        <v>628</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>545</v>
+        <v>629</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -8115,29 +8116,29 @@
         <v>5</v>
       </c>
       <c r="H268" t="s">
-        <v>492</v>
+        <v>630</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>546</v>
+        <v>217</v>
       </c>
       <c r="B269">
         <v>1</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D269">
         <v>5</v>
       </c>
       <c r="H269" t="s">
-        <v>547</v>
+        <v>218</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>548</v>
+        <v>631</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -8149,12 +8150,12 @@
         <v>5</v>
       </c>
       <c r="H270" t="s">
-        <v>549</v>
+        <v>632</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>238</v>
+        <v>633</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -8165,19 +8166,13 @@
       <c r="D271">
         <v>5</v>
       </c>
-      <c r="E271" t="s">
-        <v>19</v>
-      </c>
-      <c r="F271">
-        <v>1.0349999999999999</v>
-      </c>
       <c r="H271" t="s">
-        <v>239</v>
+        <v>634</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>550</v>
+        <v>635</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -8189,32 +8184,29 @@
         <v>5</v>
       </c>
       <c r="H272" t="s">
-        <v>551</v>
+        <v>636</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>145</v>
+        <v>637</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273">
         <v>5</v>
       </c>
-      <c r="E273" t="s">
-        <v>139</v>
-      </c>
       <c r="H273" t="s">
-        <v>146</v>
+        <v>638</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>552</v>
+        <v>639</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -8226,12 +8218,12 @@
         <v>5</v>
       </c>
       <c r="H274" t="s">
-        <v>492</v>
+        <v>640</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>553</v>
+        <v>234</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -8242,13 +8234,19 @@
       <c r="D275">
         <v>5</v>
       </c>
+      <c r="E275" t="s">
+        <v>70</v>
+      </c>
+      <c r="F275">
+        <v>1.05</v>
+      </c>
       <c r="H275" t="s">
-        <v>554</v>
+        <v>235</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>555</v>
+        <v>641</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -8260,12 +8258,12 @@
         <v>5</v>
       </c>
       <c r="H276" t="s">
-        <v>252</v>
+        <v>642</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -8274,178 +8272,151 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>5</v>
-      </c>
-      <c r="E277" t="s">
-        <v>139</v>
+        <v>8.9</v>
       </c>
       <c r="H277" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>556</v>
+        <v>72</v>
       </c>
       <c r="B278">
         <v>1</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H278" t="s">
-        <v>557</v>
+        <v>73</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="B279">
         <v>1</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279">
-        <v>5</v>
-      </c>
-      <c r="E279" t="s">
-        <v>19</v>
-      </c>
-      <c r="F279">
-        <v>1.0349999999999999</v>
+        <v>10</v>
       </c>
       <c r="H279" t="s">
-        <v>241</v>
+        <v>75</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>558</v>
+        <v>76</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H280" t="s">
-        <v>559</v>
+        <v>77</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D281">
-        <v>5</v>
-      </c>
-      <c r="E281" t="s">
-        <v>19</v>
-      </c>
-      <c r="F281">
-        <v>1.0349999999999999</v>
+        <v>10</v>
       </c>
       <c r="H281" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H282" t="s">
-        <v>561</v>
+        <v>81</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="B283">
         <v>1</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D283">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H283" t="s">
-        <v>549</v>
+        <v>83</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>5</v>
-      </c>
-      <c r="E284" t="s">
-        <v>70</v>
-      </c>
-      <c r="F284">
-        <v>1.05</v>
+        <v>10</v>
       </c>
       <c r="H284" t="s">
-        <v>229</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D285">
-        <v>5</v>
-      </c>
-      <c r="E285" t="s">
-        <v>70</v>
-      </c>
-      <c r="F285">
-        <v>1.05</v>
+        <v>10</v>
       </c>
       <c r="H285" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -8454,412 +8425,424 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H286" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>563</v>
+        <v>88</v>
       </c>
       <c r="B287">
         <v>1</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D287">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H287" t="s">
-        <v>252</v>
+        <v>89</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>564</v>
+        <v>90</v>
       </c>
       <c r="B288">
         <v>1</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D288">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H288" t="s">
-        <v>492</v>
+        <v>91</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>565</v>
+        <v>92</v>
       </c>
       <c r="B289">
         <v>1</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D289">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H289" t="s">
-        <v>561</v>
+        <v>93</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>566</v>
+        <v>94</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D290">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H290" t="s">
-        <v>567</v>
+        <v>95</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>568</v>
+        <v>96</v>
       </c>
       <c r="B291">
         <v>1</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F291">
+        <v>0.98</v>
       </c>
       <c r="H291" t="s">
-        <v>569</v>
+        <v>97</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>570</v>
+        <v>98</v>
       </c>
       <c r="B292">
         <v>1</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D292">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>572</v>
+        <v>100</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D293">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H293" t="s">
-        <v>573</v>
+        <v>101</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>574</v>
+        <v>839</v>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E294" t="s">
+        <v>70</v>
+      </c>
+      <c r="F294">
+        <v>1.05</v>
       </c>
       <c r="H294" t="s">
-        <v>575</v>
+        <v>840</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>576</v>
+        <v>102</v>
       </c>
       <c r="B295">
         <v>1</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D295">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H295" t="s">
-        <v>252</v>
+        <v>103</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>577</v>
+        <v>104</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D296">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F296">
+        <v>0.98</v>
       </c>
       <c r="H296" t="s">
-        <v>578</v>
+        <v>105</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>579</v>
+        <v>106</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D297">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H297" t="s">
-        <v>580</v>
+        <v>107</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>581</v>
+        <v>108</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D298">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H298" t="s">
-        <v>582</v>
+        <v>109</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>583</v>
+        <v>110</v>
       </c>
       <c r="B299">
         <v>1</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H299" t="s">
-        <v>584</v>
+        <v>111</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>585</v>
+        <v>112</v>
       </c>
       <c r="B300">
         <v>1</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H300" t="s">
-        <v>586</v>
+        <v>113</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>587</v>
+        <v>114</v>
       </c>
       <c r="B301">
         <v>1</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H301" t="s">
-        <v>588</v>
+        <v>115</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>589</v>
+        <v>116</v>
       </c>
       <c r="B302">
         <v>1</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H302" t="s">
-        <v>590</v>
+        <v>117</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>591</v>
+        <v>118</v>
       </c>
       <c r="B303">
         <v>1</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H303" t="s">
-        <v>592</v>
+        <v>119</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>593</v>
+        <v>69</v>
       </c>
       <c r="B304">
         <v>1</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E304" t="s">
+        <v>70</v>
+      </c>
+      <c r="F304">
+        <v>1.05</v>
       </c>
       <c r="H304" t="s">
-        <v>594</v>
+        <v>71</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>595</v>
+        <v>120</v>
       </c>
       <c r="B305">
         <v>1</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D305">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H305" t="s">
-        <v>596</v>
+        <v>121</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="B306">
         <v>1</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306">
-        <v>5</v>
-      </c>
-      <c r="E306" t="s">
-        <v>70</v>
-      </c>
-      <c r="F306">
-        <v>1.05</v>
+        <v>10</v>
       </c>
       <c r="H306" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>597</v>
+        <v>124</v>
       </c>
       <c r="B307">
         <v>1</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H307" t="s">
-        <v>598</v>
+        <v>125</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>599</v>
+        <v>126</v>
       </c>
       <c r="B308">
         <v>1</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H308" t="s">
-        <v>600</v>
+        <v>127</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>601</v>
+        <v>128</v>
       </c>
       <c r="B309">
         <v>1</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D309">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H309" t="s">
-        <v>602</v>
+        <v>129</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -8868,117 +8851,123 @@
         <v>0</v>
       </c>
       <c r="D310">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H310" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>603</v>
+        <v>132</v>
       </c>
       <c r="B311">
         <v>1</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D311">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H311" t="s">
-        <v>604</v>
+        <v>133</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>605</v>
+        <v>67</v>
       </c>
       <c r="B312">
         <v>1</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D312">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="E312" t="s">
+        <v>19</v>
+      </c>
+      <c r="F312">
+        <v>1.0349999999999999</v>
       </c>
       <c r="H312" t="s">
-        <v>606</v>
+        <v>68</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>607</v>
+        <v>65</v>
       </c>
       <c r="B313">
         <v>1</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313">
-        <v>5</v>
+        <v>16.09</v>
       </c>
       <c r="H313" t="s">
-        <v>608</v>
+        <v>66</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>609</v>
+        <v>27</v>
       </c>
       <c r="B314">
         <v>1</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D314">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H314" t="s">
-        <v>610</v>
+        <v>28</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>611</v>
+        <v>63</v>
       </c>
       <c r="B315">
         <v>1</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D315">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H315" t="s">
-        <v>612</v>
+        <v>64</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>613</v>
+        <v>29</v>
       </c>
       <c r="B316">
         <v>1</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D316">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H316" t="s">
-        <v>614</v>
+        <v>30</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -8987,151 +8976,154 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>5</v>
+        <v>21.097000000000001</v>
+      </c>
+      <c r="G317">
+        <v>22</v>
       </c>
       <c r="H317" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>615</v>
+        <v>33</v>
       </c>
       <c r="B318">
         <v>1</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H318" t="s">
-        <v>616</v>
+        <v>34</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>617</v>
+        <v>35</v>
       </c>
       <c r="B319">
         <v>1</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H319" t="s">
-        <v>618</v>
+        <v>36</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>619</v>
+        <v>37</v>
       </c>
       <c r="B320">
         <v>1</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H320" t="s">
-        <v>620</v>
+        <v>38</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>621</v>
+        <v>39</v>
       </c>
       <c r="B321">
         <v>1</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D321">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H321" t="s">
-        <v>622</v>
+        <v>40</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>623</v>
+        <v>41</v>
       </c>
       <c r="B322">
         <v>1</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D322">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H322" t="s">
-        <v>624</v>
+        <v>42</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>625</v>
+        <v>43</v>
       </c>
       <c r="B323">
         <v>1</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D323">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H323" t="s">
-        <v>626</v>
+        <v>44</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>627</v>
+        <v>45</v>
       </c>
       <c r="B324">
         <v>1</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D324">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H324" t="s">
-        <v>628</v>
+        <v>46</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>629</v>
+        <v>47</v>
       </c>
       <c r="B325">
         <v>1</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D325">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H325" t="s">
-        <v>630</v>
+        <v>48</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -9140,140 +9132,146 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H326" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>631</v>
+        <v>51</v>
       </c>
       <c r="B327">
         <v>1</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H327" t="s">
-        <v>632</v>
+        <v>52</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>633</v>
+        <v>53</v>
       </c>
       <c r="B328">
         <v>1</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D328">
-        <v>5</v>
+        <v>21.097000000000001</v>
+      </c>
+      <c r="G328">
+        <v>23</v>
       </c>
       <c r="H328" t="s">
-        <v>634</v>
+        <v>54</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>635</v>
+        <v>55</v>
       </c>
       <c r="B329">
         <v>1</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D329">
-        <v>5</v>
+        <v>21.097000000000001</v>
+      </c>
+      <c r="G329">
+        <v>25</v>
       </c>
       <c r="H329" t="s">
-        <v>636</v>
+        <v>56</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>637</v>
+        <v>57</v>
       </c>
       <c r="B330">
         <v>1</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D330">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H330" t="s">
-        <v>638</v>
+        <v>58</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>639</v>
+        <v>59</v>
       </c>
       <c r="B331">
         <v>1</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D331">
-        <v>5</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H331" t="s">
-        <v>640</v>
+        <v>60</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="B332">
         <v>1</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D332">
-        <v>5</v>
-      </c>
-      <c r="E332" t="s">
-        <v>70</v>
-      </c>
-      <c r="F332">
-        <v>1.08</v>
+        <v>21.097000000000001</v>
       </c>
       <c r="H332" t="s">
-        <v>235</v>
+        <v>62</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>641</v>
+        <v>18</v>
       </c>
       <c r="B333">
         <v>1</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D333">
-        <v>5</v>
+        <v>30.25</v>
+      </c>
+      <c r="E333" t="s">
+        <v>19</v>
+      </c>
+      <c r="F333">
+        <v>1.05</v>
       </c>
       <c r="H333" t="s">
-        <v>642</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>648</v>
+        <v>25</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -9282,15 +9280,21 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>3</v>
+        <v>30.25</v>
+      </c>
+      <c r="E334" t="s">
+        <v>19</v>
+      </c>
+      <c r="F334">
+        <v>1.05</v>
       </c>
       <c r="H334" t="s">
-        <v>649</v>
+        <v>26</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>643</v>
+        <v>23</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -9299,21 +9303,21 @@
         <v>0</v>
       </c>
       <c r="D335">
-        <v>3</v>
+        <v>30.25</v>
       </c>
       <c r="E335" t="s">
-        <v>644</v>
-      </c>
-      <c r="G335">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F335">
+        <v>1.05</v>
       </c>
       <c r="H335" t="s">
-        <v>645</v>
+        <v>24</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>646</v>
+        <v>21</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -9322,21 +9326,21 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>3</v>
+        <v>30.25</v>
       </c>
       <c r="E336" t="s">
-        <v>644</v>
-      </c>
-      <c r="G336">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F336">
+        <v>1.05</v>
       </c>
       <c r="H336" t="s">
-        <v>647</v>
+        <v>22</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>650</v>
+        <v>16</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -9345,18 +9349,15 @@
         <v>0</v>
       </c>
       <c r="D337">
-        <v>1.609</v>
-      </c>
-      <c r="E337" t="s">
-        <v>139</v>
+        <v>42.195</v>
       </c>
       <c r="H337" t="s">
-        <v>651</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>653</v>
+        <v>8</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -9365,18 +9366,15 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>1.609</v>
-      </c>
-      <c r="E338" t="s">
-        <v>139</v>
+        <v>42.195</v>
       </c>
       <c r="H338" t="s">
-        <v>1003</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>652</v>
+        <v>10</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -9385,15 +9383,15 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>1.609</v>
+        <v>42.195</v>
       </c>
       <c r="H339" t="s">
-        <v>1004</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>654</v>
+        <v>12</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -9402,18 +9400,15 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>1.5</v>
-      </c>
-      <c r="E340" t="s">
-        <v>139</v>
+        <v>42.195</v>
       </c>
       <c r="H340" t="s">
-        <v>655</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>656</v>
+        <v>14</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -9422,10 +9417,13 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>42.195</v>
+      </c>
+      <c r="G341">
+        <v>25</v>
       </c>
       <c r="H341" t="s">
-        <v>657</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
@@ -12516,7 +12514,7 @@
         <v>70</v>
       </c>
       <c r="F508">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="H508" t="s">
         <v>733</v>
@@ -12813,7 +12811,7 @@
         <v>70</v>
       </c>
       <c r="F523">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="H523" t="s">
         <v>1002</v>
@@ -12821,7 +12819,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H523">
-    <sortCondition descending="1" ref="D2:D523"/>
+    <sortCondition ref="D2:D523"/>
     <sortCondition ref="A2:A523"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H524"/>
+  <dimension ref="A1:H525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12209,6 +12209,22 @@
         <v>1.05</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2026-02-21 #2</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1</v>
+      </c>
+      <c r="D525" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul.collyer\Dropbox\Running and Cycling\DataPipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E040A514-5A49-4917-BA5E-FAE5BA178229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB85D519-F18A-437B-9BF8-435958B0CAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3078,6 +3078,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -12872,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="I525">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.3">

--- a/activity_overrides.xlsx
+++ b/activity_overrides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I527"/>
+  <dimension ref="A1:I528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12265,6 +12265,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0</v>
+      </c>
+      <c r="C528" t="n">
+        <v>1</v>
+      </c>
+      <c r="D528" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
